--- a/Estimation Report Sprint 3.xlsx
+++ b/Estimation Report Sprint 3.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -562,11 +562,11 @@
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
       </c>
       <c r="D11">
         <f>AVERAGE(D2:D10)</f>
-        <v>3.0584656084656086</v>
+        <v>1.7945767195767195</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
       </c>
       <c r="D12" s="1">
         <f>SUM(C2:C10)</f>
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/Estimation Report Sprint 3.xlsx
+++ b/Estimation Report Sprint 3.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -517,11 +517,11 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
       </c>
       <c r="D11">
         <f>AVERAGE(D2:D10)</f>
-        <v>1.7945767195767195</v>
+        <v>1.6908730158730156</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
       </c>
       <c r="D12" s="1">
         <f>SUM(C2:C10)</f>
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
